--- a/apgar5healthy.xlsx
+++ b/apgar5healthy.xlsx
@@ -484,22 +484,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.151511535297974)</t>
+          <t>ReturnTuple(sdnn=24.08410862002917)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.151511535297974)</t>
+          <t>ReturnTuple(sdnn=24.08410862002917)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.151511535297974)</t>
+          <t>ReturnTuple(sdnn=24.08410862002917)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.151511535297974)</t>
+          <t>ReturnTuple(sdnn=24.08410862002917)</t>
         </is>
       </c>
     </row>
@@ -517,22 +517,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.21615385507634)</t>
+          <t>ReturnTuple(sdnn=22.097714871858216)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.21615385507634)</t>
+          <t>ReturnTuple(sdnn=22.097714871858216)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.21615385507634)</t>
+          <t>ReturnTuple(sdnn=22.097714871858216)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.21615385507634)</t>
+          <t>ReturnTuple(sdnn=22.097714871858216)</t>
         </is>
       </c>
     </row>
@@ -550,22 +550,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.888796067991317)</t>
+          <t>ReturnTuple(sdnn=14.880010865923875)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.888796067991317)</t>
+          <t>ReturnTuple(sdnn=14.880010865923875)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.888796067991317)</t>
+          <t>ReturnTuple(sdnn=14.880010865923875)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.888796067991317)</t>
+          <t>ReturnTuple(sdnn=14.880010865923875)</t>
         </is>
       </c>
     </row>
@@ -583,22 +583,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.151290463333712)</t>
+          <t>ReturnTuple(sdnn=22.226580923603613)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.151290463333712)</t>
+          <t>ReturnTuple(sdnn=22.226580923603613)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.151290463333712)</t>
+          <t>ReturnTuple(sdnn=22.226580923603613)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.151290463333712)</t>
+          <t>ReturnTuple(sdnn=22.226580923603613)</t>
         </is>
       </c>
     </row>
@@ -616,22 +616,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.719983988141312)</t>
+          <t>ReturnTuple(sdnn=23.391346970766868)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.719983988141312)</t>
+          <t>ReturnTuple(sdnn=23.391346970766868)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.719983988141312)</t>
+          <t>ReturnTuple(sdnn=23.391346970766868)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.719983988141312)</t>
+          <t>ReturnTuple(sdnn=23.391346970766868)</t>
         </is>
       </c>
     </row>
@@ -649,22 +649,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.008368232866097)</t>
+          <t>ReturnTuple(sdnn=29.871379591073207)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.008368232866097)</t>
+          <t>ReturnTuple(sdnn=29.871379591073207)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.008368232866097)</t>
+          <t>ReturnTuple(sdnn=29.871379591073207)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.008368232866097)</t>
+          <t>ReturnTuple(sdnn=29.871379591073207)</t>
         </is>
       </c>
     </row>
@@ -682,22 +682,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.709538943011417)</t>
+          <t>ReturnTuple(sdnn=20.641889603195118)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.709538943011417)</t>
+          <t>ReturnTuple(sdnn=20.641889603195118)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.709538943011417)</t>
+          <t>ReturnTuple(sdnn=20.641889603195118)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.709538943011417)</t>
+          <t>ReturnTuple(sdnn=20.641889603195118)</t>
         </is>
       </c>
     </row>
@@ -715,22 +715,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.483616700418551)</t>
+          <t>ReturnTuple(sdnn=14.403251376805768)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.483616700418551)</t>
+          <t>ReturnTuple(sdnn=14.403251376805768)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.483616700418551)</t>
+          <t>ReturnTuple(sdnn=14.403251376805768)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.483616700418551)</t>
+          <t>ReturnTuple(sdnn=14.403251376805768)</t>
         </is>
       </c>
     </row>
@@ -748,22 +748,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.34506888655761)</t>
+          <t>ReturnTuple(sdnn=23.11654462066984)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.34506888655761)</t>
+          <t>ReturnTuple(sdnn=23.11654462066984)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.34506888655761)</t>
+          <t>ReturnTuple(sdnn=23.11654462066984)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.34506888655761)</t>
+          <t>ReturnTuple(sdnn=23.11654462066984)</t>
         </is>
       </c>
     </row>
@@ -781,22 +781,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.369916144317326)</t>
+          <t>ReturnTuple(sdnn=14.400691219266495)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.369916144317326)</t>
+          <t>ReturnTuple(sdnn=14.400691219266495)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.369916144317326)</t>
+          <t>ReturnTuple(sdnn=14.400691219266495)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.369916144317326)</t>
+          <t>ReturnTuple(sdnn=14.400691219266495)</t>
         </is>
       </c>
     </row>
@@ -814,22 +814,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.635506508172725)</t>
+          <t>ReturnTuple(sdnn=21.69897660526439)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.635506508172725)</t>
+          <t>ReturnTuple(sdnn=21.69897660526439)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.635506508172725)</t>
+          <t>ReturnTuple(sdnn=21.69897660526439)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.635506508172725)</t>
+          <t>ReturnTuple(sdnn=21.69897660526439)</t>
         </is>
       </c>
     </row>
@@ -847,22 +847,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.415497916242423)</t>
+          <t>ReturnTuple(sdnn=24.42203909599926)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.415497916242423)</t>
+          <t>ReturnTuple(sdnn=24.42203909599926)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.415497916242423)</t>
+          <t>ReturnTuple(sdnn=24.42203909599926)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.415497916242423)</t>
+          <t>ReturnTuple(sdnn=24.42203909599926)</t>
         </is>
       </c>
     </row>
@@ -880,22 +880,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.476888455708238)</t>
+          <t>ReturnTuple(sdnn=18.481429895313855)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.476888455708238)</t>
+          <t>ReturnTuple(sdnn=18.481429895313855)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.476888455708238)</t>
+          <t>ReturnTuple(sdnn=18.481429895313855)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.476888455708238)</t>
+          <t>ReturnTuple(sdnn=18.481429895313855)</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.817579368586593)</t>
+          <t>ReturnTuple(sdnn=18.64314005938282)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.817579368586593)</t>
+          <t>ReturnTuple(sdnn=18.64314005938282)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.817579368586593)</t>
+          <t>ReturnTuple(sdnn=18.64314005938282)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.817579368586593)</t>
+          <t>ReturnTuple(sdnn=18.64314005938282)</t>
         </is>
       </c>
     </row>
@@ -946,22 +946,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.50156177961827)</t>
+          <t>ReturnTuple(sdnn=19.48468293936491)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.50156177961827)</t>
+          <t>ReturnTuple(sdnn=19.48468293936491)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.50156177961827)</t>
+          <t>ReturnTuple(sdnn=19.48468293936491)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.50156177961827)</t>
+          <t>ReturnTuple(sdnn=19.48468293936491)</t>
         </is>
       </c>
     </row>
@@ -979,22 +979,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.459853723013875)</t>
+          <t>ReturnTuple(sdnn=22.50738219762121)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.459853723013875)</t>
+          <t>ReturnTuple(sdnn=22.50738219762121)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.459853723013875)</t>
+          <t>ReturnTuple(sdnn=22.50738219762121)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.459853723013875)</t>
+          <t>ReturnTuple(sdnn=22.50738219762121)</t>
         </is>
       </c>
     </row>
@@ -1012,22 +1012,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.289668138664215)</t>
+          <t>ReturnTuple(sdnn=16.139801826199893)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.289668138664215)</t>
+          <t>ReturnTuple(sdnn=16.139801826199893)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.289668138664215)</t>
+          <t>ReturnTuple(sdnn=16.139801826199893)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.289668138664215)</t>
+          <t>ReturnTuple(sdnn=16.139801826199893)</t>
         </is>
       </c>
     </row>
@@ -1045,22 +1045,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.98278428923992)</t>
+          <t>ReturnTuple(sdnn=23.734258537001377)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.98278428923992)</t>
+          <t>ReturnTuple(sdnn=23.734258537001377)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.98278428923992)</t>
+          <t>ReturnTuple(sdnn=23.734258537001377)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.98278428923992)</t>
+          <t>ReturnTuple(sdnn=23.734258537001377)</t>
         </is>
       </c>
     </row>
@@ -1078,22 +1078,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.746146506117455)</t>
+          <t>ReturnTuple(sdnn=25.76040819052499)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.746146506117455)</t>
+          <t>ReturnTuple(sdnn=25.76040819052499)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.746146506117455)</t>
+          <t>ReturnTuple(sdnn=25.76040819052499)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.746146506117455)</t>
+          <t>ReturnTuple(sdnn=25.76040819052499)</t>
         </is>
       </c>
     </row>
@@ -1111,22 +1111,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.335019339865823)</t>
+          <t>ReturnTuple(sdnn=18.95406842612953)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.335019339865823)</t>
+          <t>ReturnTuple(sdnn=18.95406842612953)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.335019339865823)</t>
+          <t>ReturnTuple(sdnn=18.95406842612953)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.335019339865823)</t>
+          <t>ReturnTuple(sdnn=18.95406842612953)</t>
         </is>
       </c>
     </row>
@@ -1144,22 +1144,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.83054584272273)</t>
+          <t>ReturnTuple(sdnn=22.648053602663623)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.83054584272273)</t>
+          <t>ReturnTuple(sdnn=22.648053602663623)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.83054584272273)</t>
+          <t>ReturnTuple(sdnn=22.648053602663623)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.83054584272273)</t>
+          <t>ReturnTuple(sdnn=22.648053602663623)</t>
         </is>
       </c>
     </row>
@@ -1177,22 +1177,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.977240648734934)</t>
+          <t>ReturnTuple(sdnn=20.79194267403372)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.977240648734934)</t>
+          <t>ReturnTuple(sdnn=20.79194267403372)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.977240648734934)</t>
+          <t>ReturnTuple(sdnn=20.79194267403372)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.977240648734934)</t>
+          <t>ReturnTuple(sdnn=20.79194267403372)</t>
         </is>
       </c>
     </row>
@@ -1210,22 +1210,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.315018349260544)</t>
+          <t>ReturnTuple(sdnn=27.303791031604497)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.315018349260544)</t>
+          <t>ReturnTuple(sdnn=27.303791031604497)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.315018349260544)</t>
+          <t>ReturnTuple(sdnn=27.303791031604497)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.315018349260544)</t>
+          <t>ReturnTuple(sdnn=27.303791031604497)</t>
         </is>
       </c>
     </row>
@@ -1243,22 +1243,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.610307536197286)</t>
+          <t>ReturnTuple(sdnn=19.440094392724703)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.610307536197286)</t>
+          <t>ReturnTuple(sdnn=19.440094392724703)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.610307536197286)</t>
+          <t>ReturnTuple(sdnn=19.440094392724703)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.610307536197286)</t>
+          <t>ReturnTuple(sdnn=19.440094392724703)</t>
         </is>
       </c>
     </row>
@@ -1276,22 +1276,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816280480960813)</t>
+          <t>ReturnTuple(sdnn=17.6909106070813)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816280480960813)</t>
+          <t>ReturnTuple(sdnn=17.6909106070813)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816280480960813)</t>
+          <t>ReturnTuple(sdnn=17.6909106070813)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816280480960813)</t>
+          <t>ReturnTuple(sdnn=17.6909106070813)</t>
         </is>
       </c>
     </row>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.318952927708578)</t>
+          <t>ReturnTuple(sdnn=9.845623260990065)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.318952927708578)</t>
+          <t>ReturnTuple(sdnn=9.845623260990065)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.318952927708578)</t>
+          <t>ReturnTuple(sdnn=9.845623260990065)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.318952927708578)</t>
+          <t>ReturnTuple(sdnn=9.845623260990065)</t>
         </is>
       </c>
     </row>
@@ -1342,22 +1342,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.021893567154358)</t>
+          <t>ReturnTuple(sdnn=12.518774061001515)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.021893567154358)</t>
+          <t>ReturnTuple(sdnn=12.518774061001515)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.021893567154358)</t>
+          <t>ReturnTuple(sdnn=12.518774061001515)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.021893567154358)</t>
+          <t>ReturnTuple(sdnn=12.518774061001515)</t>
         </is>
       </c>
     </row>
@@ -1375,22 +1375,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.760149591665233)</t>
+          <t>ReturnTuple(sdnn=22.692955194582183)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.760149591665233)</t>
+          <t>ReturnTuple(sdnn=22.692955194582183)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.760149591665233)</t>
+          <t>ReturnTuple(sdnn=22.692955194582183)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.760149591665233)</t>
+          <t>ReturnTuple(sdnn=22.692955194582183)</t>
         </is>
       </c>
     </row>
@@ -1408,22 +1408,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.419488214770308)</t>
+          <t>ReturnTuple(sdnn=18.733470485527892)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.419488214770308)</t>
+          <t>ReturnTuple(sdnn=18.733470485527892)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.419488214770308)</t>
+          <t>ReturnTuple(sdnn=18.733470485527892)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.419488214770308)</t>
+          <t>ReturnTuple(sdnn=18.733470485527892)</t>
         </is>
       </c>
     </row>
@@ -1441,22 +1441,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.287548825637856)</t>
+          <t>ReturnTuple(sdnn=28.180966176439913)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.287548825637856)</t>
+          <t>ReturnTuple(sdnn=28.180966176439913)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.287548825637856)</t>
+          <t>ReturnTuple(sdnn=28.180966176439913)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.287548825637856)</t>
+          <t>ReturnTuple(sdnn=28.180966176439913)</t>
         </is>
       </c>
     </row>
@@ -1474,22 +1474,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.592306580238088)</t>
+          <t>ReturnTuple(sdnn=18.628600778943706)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.592306580238088)</t>
+          <t>ReturnTuple(sdnn=18.628600778943706)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.592306580238088)</t>
+          <t>ReturnTuple(sdnn=18.628600778943706)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.592306580238088)</t>
+          <t>ReturnTuple(sdnn=18.628600778943706)</t>
         </is>
       </c>
     </row>
@@ -1507,22 +1507,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.61615156217473)</t>
+          <t>ReturnTuple(sdnn=16.2790493823268)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.61615156217473)</t>
+          <t>ReturnTuple(sdnn=16.2790493823268)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.61615156217473)</t>
+          <t>ReturnTuple(sdnn=16.2790493823268)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.61615156217473)</t>
+          <t>ReturnTuple(sdnn=16.2790493823268)</t>
         </is>
       </c>
     </row>
@@ -1540,22 +1540,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.160599650051903)</t>
+          <t>ReturnTuple(sdnn=19.046189094326152)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.160599650051903)</t>
+          <t>ReturnTuple(sdnn=19.046189094326152)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.160599650051903)</t>
+          <t>ReturnTuple(sdnn=19.046189094326152)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.160599650051903)</t>
+          <t>ReturnTuple(sdnn=19.046189094326152)</t>
         </is>
       </c>
     </row>
@@ -1573,22 +1573,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.73381714507091)</t>
+          <t>ReturnTuple(sdnn=15.757427678275844)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.73381714507091)</t>
+          <t>ReturnTuple(sdnn=15.757427678275844)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.73381714507091)</t>
+          <t>ReturnTuple(sdnn=15.757427678275844)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.73381714507091)</t>
+          <t>ReturnTuple(sdnn=15.757427678275844)</t>
         </is>
       </c>
     </row>
@@ -1606,22 +1606,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.457829189652353)</t>
+          <t>ReturnTuple(sdnn=15.305090047234918)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.457829189652353)</t>
+          <t>ReturnTuple(sdnn=15.305090047234918)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.457829189652353)</t>
+          <t>ReturnTuple(sdnn=15.305090047234918)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.457829189652353)</t>
+          <t>ReturnTuple(sdnn=15.305090047234918)</t>
         </is>
       </c>
     </row>
@@ -1639,22 +1639,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.241110721638513)</t>
+          <t>ReturnTuple(sdnn=18.99657816225741)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.241110721638513)</t>
+          <t>ReturnTuple(sdnn=18.99657816225741)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.241110721638513)</t>
+          <t>ReturnTuple(sdnn=18.99657816225741)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.241110721638513)</t>
+          <t>ReturnTuple(sdnn=18.99657816225741)</t>
         </is>
       </c>
     </row>
@@ -1672,22 +1672,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.318938534863866)</t>
+          <t>ReturnTuple(sdnn=9.304781829563343)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.318938534863866)</t>
+          <t>ReturnTuple(sdnn=9.304781829563343)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.318938534863866)</t>
+          <t>ReturnTuple(sdnn=9.304781829563343)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.318938534863866)</t>
+          <t>ReturnTuple(sdnn=9.304781829563343)</t>
         </is>
       </c>
     </row>
@@ -1705,22 +1705,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.743873869629155)</t>
+          <t>ReturnTuple(sdnn=17.347759574349126)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.743873869629155)</t>
+          <t>ReturnTuple(sdnn=17.347759574349126)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.743873869629155)</t>
+          <t>ReturnTuple(sdnn=17.347759574349126)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.743873869629155)</t>
+          <t>ReturnTuple(sdnn=17.347759574349126)</t>
         </is>
       </c>
     </row>
@@ -1738,22 +1738,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.38717052557374)</t>
+          <t>ReturnTuple(sdnn=15.370840088742042)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.38717052557374)</t>
+          <t>ReturnTuple(sdnn=15.370840088742042)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.38717052557374)</t>
+          <t>ReturnTuple(sdnn=15.370840088742042)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.38717052557374)</t>
+          <t>ReturnTuple(sdnn=15.370840088742042)</t>
         </is>
       </c>
     </row>
@@ -1771,22 +1771,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362070615496563)</t>
+          <t>ReturnTuple(sdnn=12.314408281608085)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362070615496563)</t>
+          <t>ReturnTuple(sdnn=12.314408281608085)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362070615496563)</t>
+          <t>ReturnTuple(sdnn=12.314408281608085)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362070615496563)</t>
+          <t>ReturnTuple(sdnn=12.314408281608085)</t>
         </is>
       </c>
     </row>
@@ -1804,22 +1804,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.89328268712506)</t>
+          <t>ReturnTuple(sdnn=18.466857897712615)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.89328268712506)</t>
+          <t>ReturnTuple(sdnn=18.466857897712615)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.89328268712506)</t>
+          <t>ReturnTuple(sdnn=18.466857897712615)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.89328268712506)</t>
+          <t>ReturnTuple(sdnn=18.466857897712615)</t>
         </is>
       </c>
     </row>
@@ -1837,22 +1837,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.410953484240004)</t>
+          <t>ReturnTuple(sdnn=21.45385155342088)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.410953484240004)</t>
+          <t>ReturnTuple(sdnn=21.45385155342088)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.410953484240004)</t>
+          <t>ReturnTuple(sdnn=21.45385155342088)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.410953484240004)</t>
+          <t>ReturnTuple(sdnn=21.45385155342088)</t>
         </is>
       </c>
     </row>
@@ -1870,22 +1870,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.34690942869585)</t>
+          <t>ReturnTuple(sdnn=22.204304741127483)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.34690942869585)</t>
+          <t>ReturnTuple(sdnn=22.204304741127483)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.34690942869585)</t>
+          <t>ReturnTuple(sdnn=22.204304741127483)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.34690942869585)</t>
+          <t>ReturnTuple(sdnn=22.204304741127483)</t>
         </is>
       </c>
     </row>
@@ -1903,22 +1903,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.236405050567317)</t>
+          <t>ReturnTuple(sdnn=14.087297034869923)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.236405050567317)</t>
+          <t>ReturnTuple(sdnn=14.087297034869923)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.236405050567317)</t>
+          <t>ReturnTuple(sdnn=14.087297034869923)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.236405050567317)</t>
+          <t>ReturnTuple(sdnn=14.087297034869923)</t>
         </is>
       </c>
     </row>
@@ -1969,22 +1969,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.60395772730935)</t>
+          <t>ReturnTuple(sdnn=24.36972366225153)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.60395772730935)</t>
+          <t>ReturnTuple(sdnn=24.36972366225153)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.60395772730935)</t>
+          <t>ReturnTuple(sdnn=24.36972366225153)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.60395772730935)</t>
+          <t>ReturnTuple(sdnn=24.36972366225153)</t>
         </is>
       </c>
     </row>
@@ -2002,22 +2002,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.893383844655474)</t>
+          <t>ReturnTuple(sdnn=10.542213966329165)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.893383844655474)</t>
+          <t>ReturnTuple(sdnn=10.542213966329165)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.893383844655474)</t>
+          <t>ReturnTuple(sdnn=10.542213966329165)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.893383844655474)</t>
+          <t>ReturnTuple(sdnn=10.542213966329165)</t>
         </is>
       </c>
     </row>
@@ -2035,22 +2035,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.815362305876828)</t>
+          <t>ReturnTuple(sdnn=13.634101497356022)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.815362305876828)</t>
+          <t>ReturnTuple(sdnn=13.634101497356022)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.815362305876828)</t>
+          <t>ReturnTuple(sdnn=13.634101497356022)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.815362305876828)</t>
+          <t>ReturnTuple(sdnn=13.634101497356022)</t>
         </is>
       </c>
     </row>
@@ -2068,22 +2068,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.24260031729046)</t>
+          <t>ReturnTuple(sdnn=9.249761615133682)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.24260031729046)</t>
+          <t>ReturnTuple(sdnn=9.249761615133682)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.24260031729046)</t>
+          <t>ReturnTuple(sdnn=9.249761615133682)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.24260031729046)</t>
+          <t>ReturnTuple(sdnn=9.249761615133682)</t>
         </is>
       </c>
     </row>
@@ -2101,22 +2101,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.45996814361741)</t>
+          <t>ReturnTuple(sdnn=22.506718299949853)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.45996814361741)</t>
+          <t>ReturnTuple(sdnn=22.506718299949853)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.45996814361741)</t>
+          <t>ReturnTuple(sdnn=22.506718299949853)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.45996814361741)</t>
+          <t>ReturnTuple(sdnn=22.506718299949853)</t>
         </is>
       </c>
     </row>
@@ -2134,22 +2134,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.291933468770122)</t>
+          <t>ReturnTuple(sdnn=12.188171146992373)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.291933468770122)</t>
+          <t>ReturnTuple(sdnn=12.188171146992373)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.291933468770122)</t>
+          <t>ReturnTuple(sdnn=12.188171146992373)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.291933468770122)</t>
+          <t>ReturnTuple(sdnn=12.188171146992373)</t>
         </is>
       </c>
     </row>
@@ -2167,22 +2167,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.627701420683248)</t>
+          <t>ReturnTuple(sdnn=14.421696974683169)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.627701420683248)</t>
+          <t>ReturnTuple(sdnn=14.421696974683169)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.627701420683248)</t>
+          <t>ReturnTuple(sdnn=14.421696974683169)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.627701420683248)</t>
+          <t>ReturnTuple(sdnn=14.421696974683169)</t>
         </is>
       </c>
     </row>
@@ -2200,22 +2200,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.221375655402323)</t>
+          <t>ReturnTuple(sdnn=20.007814445012215)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.221375655402323)</t>
+          <t>ReturnTuple(sdnn=20.007814445012215)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.221375655402323)</t>
+          <t>ReturnTuple(sdnn=20.007814445012215)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.221375655402323)</t>
+          <t>ReturnTuple(sdnn=20.007814445012215)</t>
         </is>
       </c>
     </row>
@@ -2233,22 +2233,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.01203666436675)</t>
+          <t>ReturnTuple(sdnn=15.733937998808893)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.01203666436675)</t>
+          <t>ReturnTuple(sdnn=15.733937998808893)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.01203666436675)</t>
+          <t>ReturnTuple(sdnn=15.733937998808893)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.01203666436675)</t>
+          <t>ReturnTuple(sdnn=15.733937998808893)</t>
         </is>
       </c>
     </row>
@@ -2266,22 +2266,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.0272430360708)</t>
+          <t>ReturnTuple(sdnn=20.026887019213078)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.0272430360708)</t>
+          <t>ReturnTuple(sdnn=20.026887019213078)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.0272430360708)</t>
+          <t>ReturnTuple(sdnn=20.026887019213078)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.0272430360708)</t>
+          <t>ReturnTuple(sdnn=20.026887019213078)</t>
         </is>
       </c>
     </row>
@@ -2299,22 +2299,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.061208507900757)</t>
+          <t>ReturnTuple(sdnn=14.058399056193023)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.061208507900757)</t>
+          <t>ReturnTuple(sdnn=14.058399056193023)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.061208507900757)</t>
+          <t>ReturnTuple(sdnn=14.058399056193023)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.061208507900757)</t>
+          <t>ReturnTuple(sdnn=14.058399056193023)</t>
         </is>
       </c>
     </row>
@@ -2332,22 +2332,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.25071797913665)</t>
+          <t>ReturnTuple(sdnn=18.448211435487327)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.25071797913665)</t>
+          <t>ReturnTuple(sdnn=18.448211435487327)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.25071797913665)</t>
+          <t>ReturnTuple(sdnn=18.448211435487327)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.25071797913665)</t>
+          <t>ReturnTuple(sdnn=18.448211435487327)</t>
         </is>
       </c>
     </row>
@@ -2365,22 +2365,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.613511199599472)</t>
+          <t>ReturnTuple(sdnn=26.38062450185551)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.613511199599472)</t>
+          <t>ReturnTuple(sdnn=26.38062450185551)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.613511199599472)</t>
+          <t>ReturnTuple(sdnn=26.38062450185551)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.613511199599472)</t>
+          <t>ReturnTuple(sdnn=26.38062450185551)</t>
         </is>
       </c>
     </row>
@@ -2398,22 +2398,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.525256993804295)</t>
+          <t>ReturnTuple(sdnn=16.93655630140435)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.525256993804295)</t>
+          <t>ReturnTuple(sdnn=16.93655630140435)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.525256993804295)</t>
+          <t>ReturnTuple(sdnn=16.93655630140435)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.525256993804295)</t>
+          <t>ReturnTuple(sdnn=16.93655630140435)</t>
         </is>
       </c>
     </row>
@@ -2431,22 +2431,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.601872076040674)</t>
+          <t>ReturnTuple(sdnn=16.1563999197536)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.601872076040674)</t>
+          <t>ReturnTuple(sdnn=16.1563999197536)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.601872076040674)</t>
+          <t>ReturnTuple(sdnn=16.1563999197536)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.601872076040674)</t>
+          <t>ReturnTuple(sdnn=16.1563999197536)</t>
         </is>
       </c>
     </row>
@@ -2464,22 +2464,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.21992532478053)</t>
+          <t>ReturnTuple(sdnn=18.06993412458282)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.21992532478053)</t>
+          <t>ReturnTuple(sdnn=18.06993412458282)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.21992532478053)</t>
+          <t>ReturnTuple(sdnn=18.06993412458282)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.21992532478053)</t>
+          <t>ReturnTuple(sdnn=18.06993412458282)</t>
         </is>
       </c>
     </row>
@@ -2497,22 +2497,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.47260827356023)</t>
+          <t>ReturnTuple(sdnn=16.10236611427594)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.47260827356023)</t>
+          <t>ReturnTuple(sdnn=16.10236611427594)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.47260827356023)</t>
+          <t>ReturnTuple(sdnn=16.10236611427594)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.47260827356023)</t>
+          <t>ReturnTuple(sdnn=16.10236611427594)</t>
         </is>
       </c>
     </row>
@@ -2530,22 +2530,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.413845210494745)</t>
+          <t>ReturnTuple(sdnn=28.212030323476004)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.413845210494745)</t>
+          <t>ReturnTuple(sdnn=28.212030323476004)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.413845210494745)</t>
+          <t>ReturnTuple(sdnn=28.212030323476004)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.413845210494745)</t>
+          <t>ReturnTuple(sdnn=28.212030323476004)</t>
         </is>
       </c>
     </row>
@@ -2563,22 +2563,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.194149157639558)</t>
+          <t>ReturnTuple(sdnn=27.79700256845402)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.194149157639558)</t>
+          <t>ReturnTuple(sdnn=27.79700256845402)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.194149157639558)</t>
+          <t>ReturnTuple(sdnn=27.79700256845402)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.194149157639558)</t>
+          <t>ReturnTuple(sdnn=27.79700256845402)</t>
         </is>
       </c>
     </row>
@@ -2596,22 +2596,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.700909239594846)</t>
+          <t>ReturnTuple(sdnn=10.443456776105297)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.700909239594846)</t>
+          <t>ReturnTuple(sdnn=10.443456776105297)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.700909239594846)</t>
+          <t>ReturnTuple(sdnn=10.443456776105297)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.700909239594846)</t>
+          <t>ReturnTuple(sdnn=10.443456776105297)</t>
         </is>
       </c>
     </row>
@@ -2629,22 +2629,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.682169101428432)</t>
+          <t>ReturnTuple(sdnn=13.706895705954155)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.682169101428432)</t>
+          <t>ReturnTuple(sdnn=13.706895705954155)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.682169101428432)</t>
+          <t>ReturnTuple(sdnn=13.706895705954155)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.682169101428432)</t>
+          <t>ReturnTuple(sdnn=13.706895705954155)</t>
         </is>
       </c>
     </row>
@@ -2662,22 +2662,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.129423776459102)</t>
+          <t>ReturnTuple(sdnn=17.084378285864958)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.129423776459102)</t>
+          <t>ReturnTuple(sdnn=17.084378285864958)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.129423776459102)</t>
+          <t>ReturnTuple(sdnn=17.084378285864958)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.129423776459102)</t>
+          <t>ReturnTuple(sdnn=17.084378285864958)</t>
         </is>
       </c>
     </row>
@@ -2695,22 +2695,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.512508219000823)</t>
+          <t>ReturnTuple(sdnn=15.48470001172583)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.512508219000823)</t>
+          <t>ReturnTuple(sdnn=15.48470001172583)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.512508219000823)</t>
+          <t>ReturnTuple(sdnn=15.48470001172583)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.512508219000823)</t>
+          <t>ReturnTuple(sdnn=15.48470001172583)</t>
         </is>
       </c>
     </row>
@@ -2728,22 +2728,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.750396432863083)</t>
+          <t>ReturnTuple(sdnn=8.778646960092408)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.750396432863083)</t>
+          <t>ReturnTuple(sdnn=8.778646960092408)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.750396432863083)</t>
+          <t>ReturnTuple(sdnn=8.778646960092408)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.750396432863083)</t>
+          <t>ReturnTuple(sdnn=8.778646960092408)</t>
         </is>
       </c>
     </row>
@@ -2761,22 +2761,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.251295295914279)</t>
+          <t>ReturnTuple(sdnn=14.252452506781696)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.251295295914279)</t>
+          <t>ReturnTuple(sdnn=14.252452506781696)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.251295295914279)</t>
+          <t>ReturnTuple(sdnn=14.252452506781696)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.251295295914279)</t>
+          <t>ReturnTuple(sdnn=14.252452506781696)</t>
         </is>
       </c>
     </row>
@@ -2794,22 +2794,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.452144999083252)</t>
+          <t>ReturnTuple(sdnn=12.254275116053112)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.452144999083252)</t>
+          <t>ReturnTuple(sdnn=12.254275116053112)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.452144999083252)</t>
+          <t>ReturnTuple(sdnn=12.254275116053112)</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.452144999083252)</t>
+          <t>ReturnTuple(sdnn=12.254275116053112)</t>
         </is>
       </c>
     </row>
@@ -2827,22 +2827,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.591318903569796)</t>
+          <t>ReturnTuple(sdnn=15.485085288784715)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.591318903569796)</t>
+          <t>ReturnTuple(sdnn=15.485085288784715)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.591318903569796)</t>
+          <t>ReturnTuple(sdnn=15.485085288784715)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.591318903569796)</t>
+          <t>ReturnTuple(sdnn=15.485085288784715)</t>
         </is>
       </c>
     </row>
@@ -2860,22 +2860,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.34367333080929)</t>
+          <t>ReturnTuple(sdnn=16.436735394469807)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.34367333080929)</t>
+          <t>ReturnTuple(sdnn=16.436735394469807)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.34367333080929)</t>
+          <t>ReturnTuple(sdnn=16.436735394469807)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.34367333080929)</t>
+          <t>ReturnTuple(sdnn=16.436735394469807)</t>
         </is>
       </c>
     </row>
@@ -2893,22 +2893,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.521325773903989)</t>
+          <t>ReturnTuple(sdnn=14.514512207201056)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.521325773903989)</t>
+          <t>ReturnTuple(sdnn=14.514512207201056)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.521325773903989)</t>
+          <t>ReturnTuple(sdnn=14.514512207201056)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.521325773903989)</t>
+          <t>ReturnTuple(sdnn=14.514512207201056)</t>
         </is>
       </c>
     </row>
@@ -2926,22 +2926,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.416682538070557)</t>
+          <t>ReturnTuple(sdnn=22.356729808056844)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.416682538070557)</t>
+          <t>ReturnTuple(sdnn=22.356729808056844)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.416682538070557)</t>
+          <t>ReturnTuple(sdnn=22.356729808056844)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.416682538070557)</t>
+          <t>ReturnTuple(sdnn=22.356729808056844)</t>
         </is>
       </c>
     </row>
@@ -2959,22 +2959,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.05672825724846)</t>
+          <t>ReturnTuple(sdnn=16.068655061578795)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.05672825724846)</t>
+          <t>ReturnTuple(sdnn=16.068655061578795)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.05672825724846)</t>
+          <t>ReturnTuple(sdnn=16.068655061578795)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.05672825724846)</t>
+          <t>ReturnTuple(sdnn=16.068655061578795)</t>
         </is>
       </c>
     </row>
@@ -2992,22 +2992,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.082884260321286)</t>
+          <t>ReturnTuple(sdnn=8.378730112258193)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.082884260321286)</t>
+          <t>ReturnTuple(sdnn=8.378730112258193)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.082884260321286)</t>
+          <t>ReturnTuple(sdnn=8.378730112258193)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.082884260321286)</t>
+          <t>ReturnTuple(sdnn=8.378730112258193)</t>
         </is>
       </c>
     </row>
@@ -3025,22 +3025,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816264196586978)</t>
+          <t>ReturnTuple(sdnn=17.53236237750666)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816264196586978)</t>
+          <t>ReturnTuple(sdnn=17.53236237750666)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816264196586978)</t>
+          <t>ReturnTuple(sdnn=17.53236237750666)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816264196586978)</t>
+          <t>ReturnTuple(sdnn=17.53236237750666)</t>
         </is>
       </c>
     </row>
@@ -3058,22 +3058,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.397382511927876)</t>
+          <t>ReturnTuple(sdnn=16.060820611777096)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.397382511927876)</t>
+          <t>ReturnTuple(sdnn=16.060820611777096)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.397382511927876)</t>
+          <t>ReturnTuple(sdnn=16.060820611777096)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.397382511927876)</t>
+          <t>ReturnTuple(sdnn=16.060820611777096)</t>
         </is>
       </c>
     </row>
@@ -3091,22 +3091,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.348900530359632)</t>
+          <t>ReturnTuple(sdnn=23.206754169153196)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.348900530359632)</t>
+          <t>ReturnTuple(sdnn=23.206754169153196)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.348900530359632)</t>
+          <t>ReturnTuple(sdnn=23.206754169153196)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.348900530359632)</t>
+          <t>ReturnTuple(sdnn=23.206754169153196)</t>
         </is>
       </c>
     </row>
@@ -3124,22 +3124,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.797759460096566)</t>
+          <t>ReturnTuple(sdnn=14.358529721283706)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.797759460096566)</t>
+          <t>ReturnTuple(sdnn=14.358529721283706)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.797759460096566)</t>
+          <t>ReturnTuple(sdnn=14.358529721283706)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.797759460096566)</t>
+          <t>ReturnTuple(sdnn=14.358529721283706)</t>
         </is>
       </c>
     </row>
@@ -3157,22 +3157,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.064530042873997)</t>
+          <t>ReturnTuple(sdnn=15.943115803553207)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.064530042873997)</t>
+          <t>ReturnTuple(sdnn=15.943115803553207)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.064530042873997)</t>
+          <t>ReturnTuple(sdnn=15.943115803553207)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.064530042873997)</t>
+          <t>ReturnTuple(sdnn=15.943115803553207)</t>
         </is>
       </c>
     </row>
@@ -3190,22 +3190,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.604332591209966)</t>
+          <t>ReturnTuple(sdnn=14.613835376202113)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.604332591209966)</t>
+          <t>ReturnTuple(sdnn=14.613835376202113)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.604332591209966)</t>
+          <t>ReturnTuple(sdnn=14.613835376202113)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.604332591209966)</t>
+          <t>ReturnTuple(sdnn=14.613835376202113)</t>
         </is>
       </c>
     </row>
@@ -3223,22 +3223,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=6.241185835985737)</t>
+          <t>ReturnTuple(sdnn=6.254390107890609)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=6.241185835985737)</t>
+          <t>ReturnTuple(sdnn=6.254390107890609)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=6.241185835985737)</t>
+          <t>ReturnTuple(sdnn=6.254390107890609)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=6.241185835985737)</t>
+          <t>ReturnTuple(sdnn=6.254390107890609)</t>
         </is>
       </c>
     </row>
@@ -3256,22 +3256,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.841185485952229)</t>
+          <t>ReturnTuple(sdnn=15.876925386017916)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.841185485952229)</t>
+          <t>ReturnTuple(sdnn=15.876925386017916)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.841185485952229)</t>
+          <t>ReturnTuple(sdnn=15.876925386017916)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.841185485952229)</t>
+          <t>ReturnTuple(sdnn=15.876925386017916)</t>
         </is>
       </c>
     </row>
@@ -3289,22 +3289,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.381292695281415)</t>
+          <t>ReturnTuple(sdnn=13.409107745785303)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.381292695281415)</t>
+          <t>ReturnTuple(sdnn=13.409107745785303)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.381292695281415)</t>
+          <t>ReturnTuple(sdnn=13.409107745785303)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.381292695281415)</t>
+          <t>ReturnTuple(sdnn=13.409107745785303)</t>
         </is>
       </c>
     </row>
@@ -3322,22 +3322,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.714824835610997)</t>
+          <t>ReturnTuple(sdnn=17.751653363968355)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.714824835610997)</t>
+          <t>ReturnTuple(sdnn=17.751653363968355)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.714824835610997)</t>
+          <t>ReturnTuple(sdnn=17.751653363968355)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.714824835610997)</t>
+          <t>ReturnTuple(sdnn=17.751653363968355)</t>
         </is>
       </c>
     </row>
@@ -3355,22 +3355,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.313080658347655)</t>
+          <t>ReturnTuple(sdnn=21.267563599808607)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.313080658347655)</t>
+          <t>ReturnTuple(sdnn=21.267563599808607)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.313080658347655)</t>
+          <t>ReturnTuple(sdnn=21.267563599808607)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.313080658347655)</t>
+          <t>ReturnTuple(sdnn=21.267563599808607)</t>
         </is>
       </c>
     </row>
@@ -3388,22 +3388,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.426430976357423)</t>
+          <t>ReturnTuple(sdnn=17.92078853942775)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.426430976357423)</t>
+          <t>ReturnTuple(sdnn=17.92078853942775)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.426430976357423)</t>
+          <t>ReturnTuple(sdnn=17.92078853942775)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.426430976357423)</t>
+          <t>ReturnTuple(sdnn=17.92078853942775)</t>
         </is>
       </c>
     </row>
@@ -3421,22 +3421,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.65654608641924)</t>
+          <t>ReturnTuple(sdnn=20.207622810760522)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.65654608641924)</t>
+          <t>ReturnTuple(sdnn=20.207622810760522)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.65654608641924)</t>
+          <t>ReturnTuple(sdnn=20.207622810760522)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.65654608641924)</t>
+          <t>ReturnTuple(sdnn=20.207622810760522)</t>
         </is>
       </c>
     </row>
@@ -3454,22 +3454,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.70323859613028)</t>
+          <t>ReturnTuple(sdnn=10.63049893589106)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.70323859613028)</t>
+          <t>ReturnTuple(sdnn=10.63049893589106)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.70323859613028)</t>
+          <t>ReturnTuple(sdnn=10.63049893589106)</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.70323859613028)</t>
+          <t>ReturnTuple(sdnn=10.63049893589106)</t>
         </is>
       </c>
     </row>
@@ -3487,22 +3487,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.791846478573326)</t>
+          <t>ReturnTuple(sdnn=24.790137803261384)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.791846478573326)</t>
+          <t>ReturnTuple(sdnn=24.790137803261384)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.791846478573326)</t>
+          <t>ReturnTuple(sdnn=24.790137803261384)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.791846478573326)</t>
+          <t>ReturnTuple(sdnn=24.790137803261384)</t>
         </is>
       </c>
     </row>
@@ -3520,22 +3520,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.081292947352729)</t>
+          <t>ReturnTuple(sdnn=12.088926113605936)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.081292947352729)</t>
+          <t>ReturnTuple(sdnn=12.088926113605936)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.081292947352729)</t>
+          <t>ReturnTuple(sdnn=12.088926113605936)</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.081292947352729)</t>
+          <t>ReturnTuple(sdnn=12.088926113605936)</t>
         </is>
       </c>
     </row>
@@ -3553,22 +3553,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.795019524645367)</t>
+          <t>ReturnTuple(sdnn=12.747988378415592)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.795019524645367)</t>
+          <t>ReturnTuple(sdnn=12.747988378415592)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.795019524645367)</t>
+          <t>ReturnTuple(sdnn=12.747988378415592)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.795019524645367)</t>
+          <t>ReturnTuple(sdnn=12.747988378415592)</t>
         </is>
       </c>
     </row>
@@ -3586,22 +3586,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.130789472725528)</t>
+          <t>ReturnTuple(sdnn=19.996736627512522)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.130789472725528)</t>
+          <t>ReturnTuple(sdnn=19.996736627512522)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.130789472725528)</t>
+          <t>ReturnTuple(sdnn=19.996736627512522)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.130789472725528)</t>
+          <t>ReturnTuple(sdnn=19.996736627512522)</t>
         </is>
       </c>
     </row>
@@ -3619,22 +3619,22 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.56246839195853)</t>
+          <t>ReturnTuple(sdnn=16.512262145006545)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.56246839195853)</t>
+          <t>ReturnTuple(sdnn=16.512262145006545)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.56246839195853)</t>
+          <t>ReturnTuple(sdnn=16.512262145006545)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.56246839195853)</t>
+          <t>ReturnTuple(sdnn=16.512262145006545)</t>
         </is>
       </c>
     </row>
@@ -3652,22 +3652,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.89952104601569)</t>
+          <t>ReturnTuple(sdnn=19.70887871797213)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.89952104601569)</t>
+          <t>ReturnTuple(sdnn=19.70887871797213)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.89952104601569)</t>
+          <t>ReturnTuple(sdnn=19.70887871797213)</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.89952104601569)</t>
+          <t>ReturnTuple(sdnn=19.70887871797213)</t>
         </is>
       </c>
     </row>
@@ -3685,22 +3685,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.493301743242327)</t>
+          <t>ReturnTuple(sdnn=22.46542684210434)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.493301743242327)</t>
+          <t>ReturnTuple(sdnn=22.46542684210434)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.493301743242327)</t>
+          <t>ReturnTuple(sdnn=22.46542684210434)</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.493301743242327)</t>
+          <t>ReturnTuple(sdnn=22.46542684210434)</t>
         </is>
       </c>
     </row>
@@ -3718,22 +3718,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.014861478591914)</t>
+          <t>ReturnTuple(sdnn=19.105742642636198)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.014861478591914)</t>
+          <t>ReturnTuple(sdnn=19.105742642636198)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.014861478591914)</t>
+          <t>ReturnTuple(sdnn=19.105742642636198)</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.014861478591914)</t>
+          <t>ReturnTuple(sdnn=19.105742642636198)</t>
         </is>
       </c>
     </row>
@@ -3751,22 +3751,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.984217083036004)</t>
+          <t>ReturnTuple(sdnn=12.742075730529475)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.984217083036004)</t>
+          <t>ReturnTuple(sdnn=12.742075730529475)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.984217083036004)</t>
+          <t>ReturnTuple(sdnn=12.742075730529475)</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.984217083036004)</t>
+          <t>ReturnTuple(sdnn=12.742075730529475)</t>
         </is>
       </c>
     </row>
@@ -3784,22 +3784,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.311137234418906)</t>
+          <t>ReturnTuple(sdnn=14.366671209861865)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.311137234418906)</t>
+          <t>ReturnTuple(sdnn=14.366671209861865)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.311137234418906)</t>
+          <t>ReturnTuple(sdnn=14.366671209861865)</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.311137234418906)</t>
+          <t>ReturnTuple(sdnn=14.366671209861865)</t>
         </is>
       </c>
     </row>
@@ -3817,22 +3817,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.756521701910257)</t>
+          <t>ReturnTuple(sdnn=15.582519393645741)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.756521701910257)</t>
+          <t>ReturnTuple(sdnn=15.582519393645741)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.756521701910257)</t>
+          <t>ReturnTuple(sdnn=15.582519393645741)</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.756521701910257)</t>
+          <t>ReturnTuple(sdnn=15.582519393645741)</t>
         </is>
       </c>
     </row>
@@ -3850,22 +3850,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.124880035216751)</t>
+          <t>ReturnTuple(sdnn=13.056527631431115)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.124880035216751)</t>
+          <t>ReturnTuple(sdnn=13.056527631431115)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.124880035216751)</t>
+          <t>ReturnTuple(sdnn=13.056527631431115)</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.124880035216751)</t>
+          <t>ReturnTuple(sdnn=13.056527631431115)</t>
         </is>
       </c>
     </row>
@@ -3883,22 +3883,22 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.757563849648843)</t>
+          <t>ReturnTuple(sdnn=12.630414808800865)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.757563849648843)</t>
+          <t>ReturnTuple(sdnn=12.630414808800865)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.757563849648843)</t>
+          <t>ReturnTuple(sdnn=12.630414808800865)</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.757563849648843)</t>
+          <t>ReturnTuple(sdnn=12.630414808800865)</t>
         </is>
       </c>
     </row>
@@ -3916,22 +3916,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.461616128379433)</t>
+          <t>ReturnTuple(sdnn=21.33276797600235)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.461616128379433)</t>
+          <t>ReturnTuple(sdnn=21.33276797600235)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.461616128379433)</t>
+          <t>ReturnTuple(sdnn=21.33276797600235)</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.461616128379433)</t>
+          <t>ReturnTuple(sdnn=21.33276797600235)</t>
         </is>
       </c>
     </row>
@@ -3949,22 +3949,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.596309341089594)</t>
+          <t>ReturnTuple(sdnn=22.392646601272567)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.596309341089594)</t>
+          <t>ReturnTuple(sdnn=22.392646601272567)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.596309341089594)</t>
+          <t>ReturnTuple(sdnn=22.392646601272567)</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.596309341089594)</t>
+          <t>ReturnTuple(sdnn=22.392646601272567)</t>
         </is>
       </c>
     </row>
@@ -3982,22 +3982,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.6888504778175)</t>
+          <t>ReturnTuple(sdnn=10.676169148366048)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.6888504778175)</t>
+          <t>ReturnTuple(sdnn=10.676169148366048)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.6888504778175)</t>
+          <t>ReturnTuple(sdnn=10.676169148366048)</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.6888504778175)</t>
+          <t>ReturnTuple(sdnn=10.676169148366048)</t>
         </is>
       </c>
     </row>
@@ -4015,22 +4015,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.286018280616698)</t>
+          <t>ReturnTuple(sdnn=16.40831407747778)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.286018280616698)</t>
+          <t>ReturnTuple(sdnn=16.40831407747778)</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.286018280616698)</t>
+          <t>ReturnTuple(sdnn=16.40831407747778)</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.286018280616698)</t>
+          <t>ReturnTuple(sdnn=16.40831407747778)</t>
         </is>
       </c>
     </row>
@@ -4048,22 +4048,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.41161124367908)</t>
+          <t>ReturnTuple(sdnn=30.362442442066726)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.41161124367908)</t>
+          <t>ReturnTuple(sdnn=30.362442442066726)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.41161124367908)</t>
+          <t>ReturnTuple(sdnn=30.362442442066726)</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.41161124367908)</t>
+          <t>ReturnTuple(sdnn=30.362442442066726)</t>
         </is>
       </c>
     </row>
@@ -4081,22 +4081,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.137800196203244)</t>
+          <t>ReturnTuple(sdnn=16.060388476168477)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.137800196203244)</t>
+          <t>ReturnTuple(sdnn=16.060388476168477)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.137800196203244)</t>
+          <t>ReturnTuple(sdnn=16.060388476168477)</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.137800196203244)</t>
+          <t>ReturnTuple(sdnn=16.060388476168477)</t>
         </is>
       </c>
     </row>
@@ -4114,22 +4114,22 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.560337087593338)</t>
+          <t>ReturnTuple(sdnn=11.988561089257908)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.560337087593338)</t>
+          <t>ReturnTuple(sdnn=11.988561089257908)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.560337087593338)</t>
+          <t>ReturnTuple(sdnn=11.988561089257908)</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.560337087593338)</t>
+          <t>ReturnTuple(sdnn=11.988561089257908)</t>
         </is>
       </c>
     </row>
@@ -4147,22 +4147,22 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.26779899682522)</t>
+          <t>ReturnTuple(sdnn=18.96775351651676)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.26779899682522)</t>
+          <t>ReturnTuple(sdnn=18.96775351651676)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.26779899682522)</t>
+          <t>ReturnTuple(sdnn=18.96775351651676)</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.26779899682522)</t>
+          <t>ReturnTuple(sdnn=18.96775351651676)</t>
         </is>
       </c>
     </row>
@@ -4180,22 +4180,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.014380959761551)</t>
+          <t>ReturnTuple(sdnn=10.667604714500303)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.014380959761551)</t>
+          <t>ReturnTuple(sdnn=10.667604714500303)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.014380959761551)</t>
+          <t>ReturnTuple(sdnn=10.667604714500303)</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.014380959761551)</t>
+          <t>ReturnTuple(sdnn=10.667604714500303)</t>
         </is>
       </c>
     </row>
@@ -4213,22 +4213,22 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.028653343282704)</t>
+          <t>ReturnTuple(sdnn=15.02763124811553)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.028653343282704)</t>
+          <t>ReturnTuple(sdnn=15.02763124811553)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.028653343282704)</t>
+          <t>ReturnTuple(sdnn=15.02763124811553)</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.028653343282704)</t>
+          <t>ReturnTuple(sdnn=15.02763124811553)</t>
         </is>
       </c>
     </row>
@@ -4246,22 +4246,22 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.939156606281543)</t>
+          <t>ReturnTuple(sdnn=18.407514494374634)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.939156606281543)</t>
+          <t>ReturnTuple(sdnn=18.407514494374634)</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.939156606281543)</t>
+          <t>ReturnTuple(sdnn=18.407514494374634)</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.939156606281543)</t>
+          <t>ReturnTuple(sdnn=18.407514494374634)</t>
         </is>
       </c>
     </row>
@@ -4279,22 +4279,22 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.218218438761717)</t>
+          <t>ReturnTuple(sdnn=24.08137171643107)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.218218438761717)</t>
+          <t>ReturnTuple(sdnn=24.08137171643107)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.218218438761717)</t>
+          <t>ReturnTuple(sdnn=24.08137171643107)</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.218218438761717)</t>
+          <t>ReturnTuple(sdnn=24.08137171643107)</t>
         </is>
       </c>
     </row>
@@ -4312,22 +4312,22 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.304048148383195)</t>
+          <t>ReturnTuple(sdnn=16.034063473917588)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.304048148383195)</t>
+          <t>ReturnTuple(sdnn=16.034063473917588)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.304048148383195)</t>
+          <t>ReturnTuple(sdnn=16.034063473917588)</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.304048148383195)</t>
+          <t>ReturnTuple(sdnn=16.034063473917588)</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.851770556425485)</t>
+          <t>ReturnTuple(sdnn=21.354760863534466)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.851770556425485)</t>
+          <t>ReturnTuple(sdnn=21.354760863534466)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.851770556425485)</t>
+          <t>ReturnTuple(sdnn=21.354760863534466)</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.851770556425485)</t>
+          <t>ReturnTuple(sdnn=21.354760863534466)</t>
         </is>
       </c>
     </row>
@@ -4378,22 +4378,22 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.596338891362187)</t>
+          <t>ReturnTuple(sdnn=18.366198136402677)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.596338891362187)</t>
+          <t>ReturnTuple(sdnn=18.366198136402677)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.596338891362187)</t>
+          <t>ReturnTuple(sdnn=18.366198136402677)</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.596338891362187)</t>
+          <t>ReturnTuple(sdnn=18.366198136402677)</t>
         </is>
       </c>
     </row>
@@ -4411,22 +4411,22 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.332458220431587)</t>
+          <t>ReturnTuple(sdnn=22.683424525433335)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.332458220431587)</t>
+          <t>ReturnTuple(sdnn=22.683424525433335)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.332458220431587)</t>
+          <t>ReturnTuple(sdnn=22.683424525433335)</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.332458220431587)</t>
+          <t>ReturnTuple(sdnn=22.683424525433335)</t>
         </is>
       </c>
     </row>
@@ -4444,22 +4444,22 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.802702383795904)</t>
+          <t>ReturnTuple(sdnn=22.831555282620396)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.802702383795904)</t>
+          <t>ReturnTuple(sdnn=22.831555282620396)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.802702383795904)</t>
+          <t>ReturnTuple(sdnn=22.831555282620396)</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.802702383795904)</t>
+          <t>ReturnTuple(sdnn=22.831555282620396)</t>
         </is>
       </c>
     </row>
@@ -4477,22 +4477,22 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.460532297527887)</t>
+          <t>ReturnTuple(sdnn=19.19447302271281)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.460532297527887)</t>
+          <t>ReturnTuple(sdnn=19.19447302271281)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.460532297527887)</t>
+          <t>ReturnTuple(sdnn=19.19447302271281)</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.460532297527887)</t>
+          <t>ReturnTuple(sdnn=19.19447302271281)</t>
         </is>
       </c>
     </row>
@@ -4510,22 +4510,22 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.96182951591123)</t>
+          <t>ReturnTuple(sdnn=17.42322083154717)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.96182951591123)</t>
+          <t>ReturnTuple(sdnn=17.42322083154717)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.96182951591123)</t>
+          <t>ReturnTuple(sdnn=17.42322083154717)</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.96182951591123)</t>
+          <t>ReturnTuple(sdnn=17.42322083154717)</t>
         </is>
       </c>
     </row>
@@ -4543,22 +4543,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.9401135089689)</t>
+          <t>ReturnTuple(sdnn=20.7968507975557)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.9401135089689)</t>
+          <t>ReturnTuple(sdnn=20.7968507975557)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.9401135089689)</t>
+          <t>ReturnTuple(sdnn=20.7968507975557)</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.9401135089689)</t>
+          <t>ReturnTuple(sdnn=20.7968507975557)</t>
         </is>
       </c>
     </row>
@@ -4576,22 +4576,22 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.447738063316905)</t>
+          <t>ReturnTuple(sdnn=18.328829368853683)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.447738063316905)</t>
+          <t>ReturnTuple(sdnn=18.328829368853683)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.447738063316905)</t>
+          <t>ReturnTuple(sdnn=18.328829368853683)</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.447738063316905)</t>
+          <t>ReturnTuple(sdnn=18.328829368853683)</t>
         </is>
       </c>
     </row>
@@ -4609,22 +4609,22 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.704919854699623)</t>
+          <t>ReturnTuple(sdnn=15.486337677631818)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.704919854699623)</t>
+          <t>ReturnTuple(sdnn=15.486337677631818)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.704919854699623)</t>
+          <t>ReturnTuple(sdnn=15.486337677631818)</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.704919854699623)</t>
+          <t>ReturnTuple(sdnn=15.486337677631818)</t>
         </is>
       </c>
     </row>
@@ -4642,22 +4642,22 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.756692511846845)</t>
+          <t>ReturnTuple(sdnn=14.725398177036539)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.756692511846845)</t>
+          <t>ReturnTuple(sdnn=14.725398177036539)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.756692511846845)</t>
+          <t>ReturnTuple(sdnn=14.725398177036539)</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.756692511846845)</t>
+          <t>ReturnTuple(sdnn=14.725398177036539)</t>
         </is>
       </c>
     </row>
@@ -4675,22 +4675,22 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.84821328487888)</t>
+          <t>ReturnTuple(sdnn=19.88826917503962)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.84821328487888)</t>
+          <t>ReturnTuple(sdnn=19.88826917503962)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.84821328487888)</t>
+          <t>ReturnTuple(sdnn=19.88826917503962)</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.84821328487888)</t>
+          <t>ReturnTuple(sdnn=19.88826917503962)</t>
         </is>
       </c>
     </row>
@@ -4708,22 +4708,22 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.36194284029547)</t>
+          <t>ReturnTuple(sdnn=16.375376682062022)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.36194284029547)</t>
+          <t>ReturnTuple(sdnn=16.375376682062022)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.36194284029547)</t>
+          <t>ReturnTuple(sdnn=16.375376682062022)</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.36194284029547)</t>
+          <t>ReturnTuple(sdnn=16.375376682062022)</t>
         </is>
       </c>
     </row>
@@ -4741,22 +4741,22 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.047586384280983)</t>
+          <t>ReturnTuple(sdnn=11.790131035694813)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.047586384280983)</t>
+          <t>ReturnTuple(sdnn=11.790131035694813)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.047586384280983)</t>
+          <t>ReturnTuple(sdnn=11.790131035694813)</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.047586384280983)</t>
+          <t>ReturnTuple(sdnn=11.790131035694813)</t>
         </is>
       </c>
     </row>
@@ -4774,22 +4774,22 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.25061330381103)</t>
+          <t>ReturnTuple(sdnn=18.252130499301426)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.25061330381103)</t>
+          <t>ReturnTuple(sdnn=18.252130499301426)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.25061330381103)</t>
+          <t>ReturnTuple(sdnn=18.252130499301426)</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.25061330381103)</t>
+          <t>ReturnTuple(sdnn=18.252130499301426)</t>
         </is>
       </c>
     </row>
@@ -4807,22 +4807,22 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.570244504515497)</t>
+          <t>ReturnTuple(sdnn=18.935048144901664)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.570244504515497)</t>
+          <t>ReturnTuple(sdnn=18.935048144901664)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.570244504515497)</t>
+          <t>ReturnTuple(sdnn=18.935048144901664)</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.570244504515497)</t>
+          <t>ReturnTuple(sdnn=18.935048144901664)</t>
         </is>
       </c>
     </row>
@@ -4840,22 +4840,22 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.393103581982064)</t>
+          <t>ReturnTuple(sdnn=16.76914693351056)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.393103581982064)</t>
+          <t>ReturnTuple(sdnn=16.76914693351056)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.393103581982064)</t>
+          <t>ReturnTuple(sdnn=16.76914693351056)</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.393103581982064)</t>
+          <t>ReturnTuple(sdnn=16.76914693351056)</t>
         </is>
       </c>
     </row>
@@ -4873,22 +4873,22 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.726050288521893)</t>
+          <t>ReturnTuple(sdnn=22.515613917559527)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.726050288521893)</t>
+          <t>ReturnTuple(sdnn=22.515613917559527)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.726050288521893)</t>
+          <t>ReturnTuple(sdnn=22.515613917559527)</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.726050288521893)</t>
+          <t>ReturnTuple(sdnn=22.515613917559527)</t>
         </is>
       </c>
     </row>
@@ -4906,22 +4906,22 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.82052633637787)</t>
+          <t>ReturnTuple(sdnn=18.739610470700953)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.82052633637787)</t>
+          <t>ReturnTuple(sdnn=18.739610470700953)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.82052633637787)</t>
+          <t>ReturnTuple(sdnn=18.739610470700953)</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.82052633637787)</t>
+          <t>ReturnTuple(sdnn=18.739610470700953)</t>
         </is>
       </c>
     </row>
@@ -4939,22 +4939,22 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.90018214245634)</t>
+          <t>ReturnTuple(sdnn=12.895954633193973)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.90018214245634)</t>
+          <t>ReturnTuple(sdnn=12.895954633193973)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.90018214245634)</t>
+          <t>ReturnTuple(sdnn=12.895954633193973)</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.90018214245634)</t>
+          <t>ReturnTuple(sdnn=12.895954633193973)</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.771941937308053)</t>
+          <t>ReturnTuple(sdnn=27.274917973410293)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.771941937308053)</t>
+          <t>ReturnTuple(sdnn=27.274917973410293)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.771941937308053)</t>
+          <t>ReturnTuple(sdnn=27.274917973410293)</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.771941937308053)</t>
+          <t>ReturnTuple(sdnn=27.274917973410293)</t>
         </is>
       </c>
     </row>
@@ -5005,22 +5005,22 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.19713859226684)</t>
+          <t>ReturnTuple(sdnn=16.128732038812142)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.19713859226684)</t>
+          <t>ReturnTuple(sdnn=16.128732038812142)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.19713859226684)</t>
+          <t>ReturnTuple(sdnn=16.128732038812142)</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.19713859226684)</t>
+          <t>ReturnTuple(sdnn=16.128732038812142)</t>
         </is>
       </c>
     </row>
@@ -5038,22 +5038,22 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.849813533674045)</t>
+          <t>ReturnTuple(sdnn=15.646258839415076)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.849813533674045)</t>
+          <t>ReturnTuple(sdnn=15.646258839415076)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.849813533674045)</t>
+          <t>ReturnTuple(sdnn=15.646258839415076)</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.849813533674045)</t>
+          <t>ReturnTuple(sdnn=15.646258839415076)</t>
         </is>
       </c>
     </row>
@@ -5071,22 +5071,22 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362144531801066)</t>
+          <t>ReturnTuple(sdnn=12.251348572114615)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362144531801066)</t>
+          <t>ReturnTuple(sdnn=12.251348572114615)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362144531801066)</t>
+          <t>ReturnTuple(sdnn=12.251348572114615)</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362144531801066)</t>
+          <t>ReturnTuple(sdnn=12.251348572114615)</t>
         </is>
       </c>
     </row>
@@ -5104,22 +5104,22 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.132621888593203)</t>
+          <t>ReturnTuple(sdnn=18.110089699826066)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.132621888593203)</t>
+          <t>ReturnTuple(sdnn=18.110089699826066)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.132621888593203)</t>
+          <t>ReturnTuple(sdnn=18.110089699826066)</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.132621888593203)</t>
+          <t>ReturnTuple(sdnn=18.110089699826066)</t>
         </is>
       </c>
     </row>
@@ -5137,22 +5137,22 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.886880433319554)</t>
+          <t>ReturnTuple(sdnn=16.801551634729403)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.886880433319554)</t>
+          <t>ReturnTuple(sdnn=16.801551634729403)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.886880433319554)</t>
+          <t>ReturnTuple(sdnn=16.801551634729403)</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.886880433319554)</t>
+          <t>ReturnTuple(sdnn=16.801551634729403)</t>
         </is>
       </c>
     </row>
@@ -5170,22 +5170,22 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.27483620573325)</t>
+          <t>ReturnTuple(sdnn=23.169499796002743)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.27483620573325)</t>
+          <t>ReturnTuple(sdnn=23.169499796002743)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.27483620573325)</t>
+          <t>ReturnTuple(sdnn=23.169499796002743)</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.27483620573325)</t>
+          <t>ReturnTuple(sdnn=23.169499796002743)</t>
         </is>
       </c>
     </row>
@@ -5203,22 +5203,22 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.210890495768394)</t>
+          <t>ReturnTuple(sdnn=12.025592893480209)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.210890495768394)</t>
+          <t>ReturnTuple(sdnn=12.025592893480209)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.210890495768394)</t>
+          <t>ReturnTuple(sdnn=12.025592893480209)</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.210890495768394)</t>
+          <t>ReturnTuple(sdnn=12.025592893480209)</t>
         </is>
       </c>
     </row>
@@ -5236,22 +5236,22 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.445709191303635)</t>
+          <t>ReturnTuple(sdnn=24.44593306808824)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.445709191303635)</t>
+          <t>ReturnTuple(sdnn=24.44593306808824)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.445709191303635)</t>
+          <t>ReturnTuple(sdnn=24.44593306808824)</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.445709191303635)</t>
+          <t>ReturnTuple(sdnn=24.44593306808824)</t>
         </is>
       </c>
     </row>
@@ -5269,22 +5269,22 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.07753609180421)</t>
+          <t>ReturnTuple(sdnn=17.864485963939103)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.07753609180421)</t>
+          <t>ReturnTuple(sdnn=17.864485963939103)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.07753609180421)</t>
+          <t>ReturnTuple(sdnn=17.864485963939103)</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.07753609180421)</t>
+          <t>ReturnTuple(sdnn=17.864485963939103)</t>
         </is>
       </c>
     </row>
@@ -5302,22 +5302,22 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.2871665688239)</t>
+          <t>ReturnTuple(sdnn=12.983913891300285)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.2871665688239)</t>
+          <t>ReturnTuple(sdnn=12.983913891300285)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.2871665688239)</t>
+          <t>ReturnTuple(sdnn=12.983913891300285)</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.2871665688239)</t>
+          <t>ReturnTuple(sdnn=12.983913891300285)</t>
         </is>
       </c>
     </row>
@@ -5335,22 +5335,22 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.454100681123311)</t>
+          <t>ReturnTuple(sdnn=12.286471164405103)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.454100681123311)</t>
+          <t>ReturnTuple(sdnn=12.286471164405103)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.454100681123311)</t>
+          <t>ReturnTuple(sdnn=12.286471164405103)</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.454100681123311)</t>
+          <t>ReturnTuple(sdnn=12.286471164405103)</t>
         </is>
       </c>
     </row>
@@ -5368,22 +5368,22 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.79359693885001)</t>
+          <t>ReturnTuple(sdnn=8.435397187241865)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.79359693885001)</t>
+          <t>ReturnTuple(sdnn=8.435397187241865)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.79359693885001)</t>
+          <t>ReturnTuple(sdnn=8.435397187241865)</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.79359693885001)</t>
+          <t>ReturnTuple(sdnn=8.435397187241865)</t>
         </is>
       </c>
     </row>
@@ -5401,22 +5401,22 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.292908429551208)</t>
+          <t>ReturnTuple(sdnn=20.227257531322856)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.292908429551208)</t>
+          <t>ReturnTuple(sdnn=20.227257531322856)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.292908429551208)</t>
+          <t>ReturnTuple(sdnn=20.227257531322856)</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.292908429551208)</t>
+          <t>ReturnTuple(sdnn=20.227257531322856)</t>
         </is>
       </c>
     </row>
@@ -5434,22 +5434,22 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.96098699315732)</t>
+          <t>ReturnTuple(sdnn=19.471865701633575)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.96098699315732)</t>
+          <t>ReturnTuple(sdnn=19.471865701633575)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.96098699315732)</t>
+          <t>ReturnTuple(sdnn=19.471865701633575)</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.96098699315732)</t>
+          <t>ReturnTuple(sdnn=19.471865701633575)</t>
         </is>
       </c>
     </row>
@@ -5467,22 +5467,22 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.385912043930636)</t>
+          <t>ReturnTuple(sdnn=9.393206510306234)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.385912043930636)</t>
+          <t>ReturnTuple(sdnn=9.393206510306234)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.385912043930636)</t>
+          <t>ReturnTuple(sdnn=9.393206510306234)</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.385912043930636)</t>
+          <t>ReturnTuple(sdnn=9.393206510306234)</t>
         </is>
       </c>
     </row>
@@ -5500,22 +5500,22 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.019923431879826)</t>
+          <t>ReturnTuple(sdnn=14.851587082292689)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.019923431879826)</t>
+          <t>ReturnTuple(sdnn=14.851587082292689)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.019923431879826)</t>
+          <t>ReturnTuple(sdnn=14.851587082292689)</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.019923431879826)</t>
+          <t>ReturnTuple(sdnn=14.851587082292689)</t>
         </is>
       </c>
     </row>
@@ -5533,22 +5533,22 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.79826980775987)</t>
+          <t>ReturnTuple(sdnn=19.736805421168658)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.79826980775987)</t>
+          <t>ReturnTuple(sdnn=19.736805421168658)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.79826980775987)</t>
+          <t>ReturnTuple(sdnn=19.736805421168658)</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.79826980775987)</t>
+          <t>ReturnTuple(sdnn=19.736805421168658)</t>
         </is>
       </c>
     </row>
@@ -5566,22 +5566,22 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.749451048702298)</t>
+          <t>ReturnTuple(sdnn=21.672019624932744)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.749451048702298)</t>
+          <t>ReturnTuple(sdnn=21.672019624932744)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.749451048702298)</t>
+          <t>ReturnTuple(sdnn=21.672019624932744)</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.749451048702298)</t>
+          <t>ReturnTuple(sdnn=21.672019624932744)</t>
         </is>
       </c>
     </row>
@@ -5599,22 +5599,22 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=5.2501442054154275)</t>
+          <t>ReturnTuple(sdnn=5.245764463182612)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=5.2501442054154275)</t>
+          <t>ReturnTuple(sdnn=5.245764463182612)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=5.2501442054154275)</t>
+          <t>ReturnTuple(sdnn=5.245764463182612)</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=5.2501442054154275)</t>
+          <t>ReturnTuple(sdnn=5.245764463182612)</t>
         </is>
       </c>
     </row>
@@ -5632,22 +5632,22 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.69900535545959)</t>
+          <t>ReturnTuple(sdnn=21.623993380235632)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.69900535545959)</t>
+          <t>ReturnTuple(sdnn=21.623993380235632)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.69900535545959)</t>
+          <t>ReturnTuple(sdnn=21.623993380235632)</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.69900535545959)</t>
+          <t>ReturnTuple(sdnn=21.623993380235632)</t>
         </is>
       </c>
     </row>
@@ -5665,22 +5665,22 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.513615172187503)</t>
+          <t>ReturnTuple(sdnn=20.300314718660058)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.513615172187503)</t>
+          <t>ReturnTuple(sdnn=20.300314718660058)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.513615172187503)</t>
+          <t>ReturnTuple(sdnn=20.300314718660058)</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.513615172187503)</t>
+          <t>ReturnTuple(sdnn=20.300314718660058)</t>
         </is>
       </c>
     </row>
@@ -5698,22 +5698,22 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.2690653704673)</t>
+          <t>ReturnTuple(sdnn=15.05346200095526)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.2690653704673)</t>
+          <t>ReturnTuple(sdnn=15.05346200095526)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.2690653704673)</t>
+          <t>ReturnTuple(sdnn=15.05346200095526)</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.2690653704673)</t>
+          <t>ReturnTuple(sdnn=15.05346200095526)</t>
         </is>
       </c>
     </row>
@@ -5731,22 +5731,22 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.858714145687314)</t>
+          <t>ReturnTuple(sdnn=12.300549447255673)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.858714145687314)</t>
+          <t>ReturnTuple(sdnn=12.300549447255673)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.858714145687314)</t>
+          <t>ReturnTuple(sdnn=12.300549447255673)</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.858714145687314)</t>
+          <t>ReturnTuple(sdnn=12.300549447255673)</t>
         </is>
       </c>
     </row>
@@ -5764,22 +5764,22 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.45251708521612)</t>
+          <t>ReturnTuple(sdnn=13.93877479925858)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.45251708521612)</t>
+          <t>ReturnTuple(sdnn=13.93877479925858)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.45251708521612)</t>
+          <t>ReturnTuple(sdnn=13.93877479925858)</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.45251708521612)</t>
+          <t>ReturnTuple(sdnn=13.93877479925858)</t>
         </is>
       </c>
     </row>
@@ -5797,22 +5797,22 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.478960454093357)</t>
+          <t>ReturnTuple(sdnn=18.146494919551333)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.478960454093357)</t>
+          <t>ReturnTuple(sdnn=18.146494919551333)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.478960454093357)</t>
+          <t>ReturnTuple(sdnn=18.146494919551333)</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.478960454093357)</t>
+          <t>ReturnTuple(sdnn=18.146494919551333)</t>
         </is>
       </c>
     </row>
@@ -5830,22 +5830,22 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.85074038857076)</t>
+          <t>ReturnTuple(sdnn=18.270463287173705)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.85074038857076)</t>
+          <t>ReturnTuple(sdnn=18.270463287173705)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.85074038857076)</t>
+          <t>ReturnTuple(sdnn=18.270463287173705)</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.85074038857076)</t>
+          <t>ReturnTuple(sdnn=18.270463287173705)</t>
         </is>
       </c>
     </row>
@@ -5863,22 +5863,22 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.320607319889817)</t>
+          <t>ReturnTuple(sdnn=14.922767732850192)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.320607319889817)</t>
+          <t>ReturnTuple(sdnn=14.922767732850192)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.320607319889817)</t>
+          <t>ReturnTuple(sdnn=14.922767732850192)</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.320607319889817)</t>
+          <t>ReturnTuple(sdnn=14.922767732850192)</t>
         </is>
       </c>
     </row>
@@ -5896,22 +5896,22 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.056064077117036)</t>
+          <t>ReturnTuple(sdnn=16.046276445026646)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.056064077117036)</t>
+          <t>ReturnTuple(sdnn=16.046276445026646)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.056064077117036)</t>
+          <t>ReturnTuple(sdnn=16.046276445026646)</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.056064077117036)</t>
+          <t>ReturnTuple(sdnn=16.046276445026646)</t>
         </is>
       </c>
     </row>
@@ -5929,22 +5929,22 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.088073016295745)</t>
+          <t>ReturnTuple(sdnn=17.55176408108399)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.088073016295745)</t>
+          <t>ReturnTuple(sdnn=17.55176408108399)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.088073016295745)</t>
+          <t>ReturnTuple(sdnn=17.55176408108399)</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.088073016295745)</t>
+          <t>ReturnTuple(sdnn=17.55176408108399)</t>
         </is>
       </c>
     </row>
@@ -5962,22 +5962,22 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.901716153068206)</t>
+          <t>ReturnTuple(sdnn=14.812081098587331)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.901716153068206)</t>
+          <t>ReturnTuple(sdnn=14.812081098587331)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.901716153068206)</t>
+          <t>ReturnTuple(sdnn=14.812081098587331)</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.901716153068206)</t>
+          <t>ReturnTuple(sdnn=14.812081098587331)</t>
         </is>
       </c>
     </row>
@@ -5995,22 +5995,22 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.058634153032566)</t>
+          <t>ReturnTuple(sdnn=12.54939604425609)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.058634153032566)</t>
+          <t>ReturnTuple(sdnn=12.54939604425609)</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.058634153032566)</t>
+          <t>ReturnTuple(sdnn=12.54939604425609)</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.058634153032566)</t>
+          <t>ReturnTuple(sdnn=12.54939604425609)</t>
         </is>
       </c>
     </row>
@@ -6028,22 +6028,22 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.082817796836817)</t>
+          <t>ReturnTuple(sdnn=22.631863405234213)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.082817796836817)</t>
+          <t>ReturnTuple(sdnn=22.631863405234213)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.082817796836817)</t>
+          <t>ReturnTuple(sdnn=22.631863405234213)</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.082817796836817)</t>
+          <t>ReturnTuple(sdnn=22.631863405234213)</t>
         </is>
       </c>
     </row>
@@ -6061,22 +6061,22 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.026147622602155)</t>
+          <t>ReturnTuple(sdnn=13.931245083903075)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.026147622602155)</t>
+          <t>ReturnTuple(sdnn=13.931245083903075)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.026147622602155)</t>
+          <t>ReturnTuple(sdnn=13.931245083903075)</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.026147622602155)</t>
+          <t>ReturnTuple(sdnn=13.931245083903075)</t>
         </is>
       </c>
     </row>
@@ -6094,22 +6094,22 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.601794046246305)</t>
+          <t>ReturnTuple(sdnn=18.16141535061375)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.601794046246305)</t>
+          <t>ReturnTuple(sdnn=18.16141535061375)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.601794046246305)</t>
+          <t>ReturnTuple(sdnn=18.16141535061375)</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.601794046246305)</t>
+          <t>ReturnTuple(sdnn=18.16141535061375)</t>
         </is>
       </c>
     </row>
@@ -6127,22 +6127,22 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.364203145567275)</t>
+          <t>ReturnTuple(sdnn=12.332588623575099)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.364203145567275)</t>
+          <t>ReturnTuple(sdnn=12.332588623575099)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.364203145567275)</t>
+          <t>ReturnTuple(sdnn=12.332588623575099)</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.364203145567275)</t>
+          <t>ReturnTuple(sdnn=12.332588623575099)</t>
         </is>
       </c>
     </row>
@@ -6160,22 +6160,22 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.769896765431104)</t>
+          <t>ReturnTuple(sdnn=13.75395945318718)</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.769896765431104)</t>
+          <t>ReturnTuple(sdnn=13.75395945318718)</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.769896765431104)</t>
+          <t>ReturnTuple(sdnn=13.75395945318718)</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.769896765431104)</t>
+          <t>ReturnTuple(sdnn=13.75395945318718)</t>
         </is>
       </c>
     </row>
@@ -6193,22 +6193,22 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.09764582449315)</t>
+          <t>ReturnTuple(sdnn=17.95324510027871)</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.09764582449315)</t>
+          <t>ReturnTuple(sdnn=17.95324510027871)</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.09764582449315)</t>
+          <t>ReturnTuple(sdnn=17.95324510027871)</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.09764582449315)</t>
+          <t>ReturnTuple(sdnn=17.95324510027871)</t>
         </is>
       </c>
     </row>
@@ -6226,22 +6226,22 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.736766873986943)</t>
+          <t>ReturnTuple(sdnn=10.705806523794768)</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.736766873986943)</t>
+          <t>ReturnTuple(sdnn=10.705806523794768)</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.736766873986943)</t>
+          <t>ReturnTuple(sdnn=10.705806523794768)</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.736766873986943)</t>
+          <t>ReturnTuple(sdnn=10.705806523794768)</t>
         </is>
       </c>
     </row>
@@ -6259,22 +6259,22 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.259381236073533)</t>
+          <t>ReturnTuple(sdnn=17.224109839499672)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.259381236073533)</t>
+          <t>ReturnTuple(sdnn=17.224109839499672)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.259381236073533)</t>
+          <t>ReturnTuple(sdnn=17.224109839499672)</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.259381236073533)</t>
+          <t>ReturnTuple(sdnn=17.224109839499672)</t>
         </is>
       </c>
     </row>
@@ -6292,22 +6292,22 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.125955059164806)</t>
+          <t>ReturnTuple(sdnn=19.160646719617016)</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.125955059164806)</t>
+          <t>ReturnTuple(sdnn=19.160646719617016)</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.125955059164806)</t>
+          <t>ReturnTuple(sdnn=19.160646719617016)</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.125955059164806)</t>
+          <t>ReturnTuple(sdnn=19.160646719617016)</t>
         </is>
       </c>
     </row>
@@ -6325,22 +6325,22 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.74597701290654)</t>
+          <t>ReturnTuple(sdnn=16.68102733980723)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.74597701290654)</t>
+          <t>ReturnTuple(sdnn=16.68102733980723)</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.74597701290654)</t>
+          <t>ReturnTuple(sdnn=16.68102733980723)</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.74597701290654)</t>
+          <t>ReturnTuple(sdnn=16.68102733980723)</t>
         </is>
       </c>
     </row>
@@ -6358,22 +6358,22 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.242656003421857)</t>
+          <t>ReturnTuple(sdnn=16.24465216380139)</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.242656003421857)</t>
+          <t>ReturnTuple(sdnn=16.24465216380139)</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.242656003421857)</t>
+          <t>ReturnTuple(sdnn=16.24465216380139)</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.242656003421857)</t>
+          <t>ReturnTuple(sdnn=16.24465216380139)</t>
         </is>
       </c>
     </row>
@@ -6391,22 +6391,22 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.125926311626564)</t>
+          <t>ReturnTuple(sdnn=24.939383552260605)</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.125926311626564)</t>
+          <t>ReturnTuple(sdnn=24.939383552260605)</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.125926311626564)</t>
+          <t>ReturnTuple(sdnn=24.939383552260605)</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.125926311626564)</t>
+          <t>ReturnTuple(sdnn=24.939383552260605)</t>
         </is>
       </c>
     </row>
@@ -6424,22 +6424,22 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.654746917229533)</t>
+          <t>ReturnTuple(sdnn=15.502238586207692)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.654746917229533)</t>
+          <t>ReturnTuple(sdnn=15.502238586207692)</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.654746917229533)</t>
+          <t>ReturnTuple(sdnn=15.502238586207692)</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.654746917229533)</t>
+          <t>ReturnTuple(sdnn=15.502238586207692)</t>
         </is>
       </c>
     </row>
@@ -6457,22 +6457,22 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.089924739723031)</t>
+          <t>ReturnTuple(sdnn=12.990593196360528)</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.089924739723031)</t>
+          <t>ReturnTuple(sdnn=12.990593196360528)</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.089924739723031)</t>
+          <t>ReturnTuple(sdnn=12.990593196360528)</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.089924739723031)</t>
+          <t>ReturnTuple(sdnn=12.990593196360528)</t>
         </is>
       </c>
     </row>
@@ -6490,22 +6490,22 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.382288797550224)</t>
+          <t>ReturnTuple(sdnn=25.085277348328372)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.382288797550224)</t>
+          <t>ReturnTuple(sdnn=25.085277348328372)</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.382288797550224)</t>
+          <t>ReturnTuple(sdnn=25.085277348328372)</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.382288797550224)</t>
+          <t>ReturnTuple(sdnn=25.085277348328372)</t>
         </is>
       </c>
     </row>
@@ -6523,22 +6523,22 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.075551097478723)</t>
+          <t>ReturnTuple(sdnn=21.817074908827504)</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.075551097478723)</t>
+          <t>ReturnTuple(sdnn=21.817074908827504)</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.075551097478723)</t>
+          <t>ReturnTuple(sdnn=21.817074908827504)</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.075551097478723)</t>
+          <t>ReturnTuple(sdnn=21.817074908827504)</t>
         </is>
       </c>
     </row>
@@ -6556,22 +6556,22 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.39014127021635)</t>
+          <t>ReturnTuple(sdnn=21.32827707776698)</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.39014127021635)</t>
+          <t>ReturnTuple(sdnn=21.32827707776698)</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.39014127021635)</t>
+          <t>ReturnTuple(sdnn=21.32827707776698)</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.39014127021635)</t>
+          <t>ReturnTuple(sdnn=21.32827707776698)</t>
         </is>
       </c>
     </row>
@@ -6589,22 +6589,22 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.861859142539513)</t>
+          <t>ReturnTuple(sdnn=11.448760440732348)</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.861859142539513)</t>
+          <t>ReturnTuple(sdnn=11.448760440732348)</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.861859142539513)</t>
+          <t>ReturnTuple(sdnn=11.448760440732348)</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.861859142539513)</t>
+          <t>ReturnTuple(sdnn=11.448760440732348)</t>
         </is>
       </c>
     </row>
@@ -6622,22 +6622,22 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.481808104803296)</t>
+          <t>ReturnTuple(sdnn=22.009473777284136)</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.481808104803296)</t>
+          <t>ReturnTuple(sdnn=22.009473777284136)</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.481808104803296)</t>
+          <t>ReturnTuple(sdnn=22.009473777284136)</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.481808104803296)</t>
+          <t>ReturnTuple(sdnn=22.009473777284136)</t>
         </is>
       </c>
     </row>
@@ -6655,22 +6655,22 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.017707942043684)</t>
+          <t>ReturnTuple(sdnn=12.984953861178811)</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.017707942043684)</t>
+          <t>ReturnTuple(sdnn=12.984953861178811)</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.017707942043684)</t>
+          <t>ReturnTuple(sdnn=12.984953861178811)</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.017707942043684)</t>
+          <t>ReturnTuple(sdnn=12.984953861178811)</t>
         </is>
       </c>
     </row>
@@ -6688,22 +6688,22 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.502786210628257)</t>
+          <t>ReturnTuple(sdnn=13.359186499938707)</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.502786210628257)</t>
+          <t>ReturnTuple(sdnn=13.359186499938707)</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.502786210628257)</t>
+          <t>ReturnTuple(sdnn=13.359186499938707)</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.502786210628257)</t>
+          <t>ReturnTuple(sdnn=13.359186499938707)</t>
         </is>
       </c>
     </row>
@@ -6721,22 +6721,22 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.390793569553573)</t>
+          <t>ReturnTuple(sdnn=17.08099464628871)</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.390793569553573)</t>
+          <t>ReturnTuple(sdnn=17.08099464628871)</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.390793569553573)</t>
+          <t>ReturnTuple(sdnn=17.08099464628871)</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.390793569553573)</t>
+          <t>ReturnTuple(sdnn=17.08099464628871)</t>
         </is>
       </c>
     </row>
@@ -6754,22 +6754,22 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.321497170794988)</t>
+          <t>ReturnTuple(sdnn=17.237375859665423)</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.321497170794988)</t>
+          <t>ReturnTuple(sdnn=17.237375859665423)</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.321497170794988)</t>
+          <t>ReturnTuple(sdnn=17.237375859665423)</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.321497170794988)</t>
+          <t>ReturnTuple(sdnn=17.237375859665423)</t>
         </is>
       </c>
     </row>
@@ -6787,22 +6787,22 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.92947368677672)</t>
+          <t>ReturnTuple(sdnn=21.301212627364787)</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.92947368677672)</t>
+          <t>ReturnTuple(sdnn=21.301212627364787)</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.92947368677672)</t>
+          <t>ReturnTuple(sdnn=21.301212627364787)</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.92947368677672)</t>
+          <t>ReturnTuple(sdnn=21.301212627364787)</t>
         </is>
       </c>
     </row>
@@ -6820,22 +6820,22 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.94627266945575)</t>
+          <t>ReturnTuple(sdnn=8.956140211314045)</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.94627266945575)</t>
+          <t>ReturnTuple(sdnn=8.956140211314045)</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.94627266945575)</t>
+          <t>ReturnTuple(sdnn=8.956140211314045)</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.94627266945575)</t>
+          <t>ReturnTuple(sdnn=8.956140211314045)</t>
         </is>
       </c>
     </row>
@@ -6853,22 +6853,22 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.314018284339035)</t>
+          <t>ReturnTuple(sdnn=17.367023812701937)</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.314018284339035)</t>
+          <t>ReturnTuple(sdnn=17.367023812701937)</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.314018284339035)</t>
+          <t>ReturnTuple(sdnn=17.367023812701937)</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.314018284339035)</t>
+          <t>ReturnTuple(sdnn=17.367023812701937)</t>
         </is>
       </c>
     </row>
@@ -6886,22 +6886,22 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.169002142028273)</t>
+          <t>ReturnTuple(sdnn=7.178635706409526)</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.169002142028273)</t>
+          <t>ReturnTuple(sdnn=7.178635706409526)</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.169002142028273)</t>
+          <t>ReturnTuple(sdnn=7.178635706409526)</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.169002142028273)</t>
+          <t>ReturnTuple(sdnn=7.178635706409526)</t>
         </is>
       </c>
     </row>
@@ -6919,22 +6919,22 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.029311986229063)</t>
+          <t>ReturnTuple(sdnn=14.412857073861595)</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.029311986229063)</t>
+          <t>ReturnTuple(sdnn=14.412857073861595)</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.029311986229063)</t>
+          <t>ReturnTuple(sdnn=14.412857073861595)</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.029311986229063)</t>
+          <t>ReturnTuple(sdnn=14.412857073861595)</t>
         </is>
       </c>
     </row>
@@ -6952,22 +6952,22 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.647246463766303)</t>
+          <t>ReturnTuple(sdnn=14.603376085968954)</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.647246463766303)</t>
+          <t>ReturnTuple(sdnn=14.603376085968954)</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.647246463766303)</t>
+          <t>ReturnTuple(sdnn=14.603376085968954)</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.647246463766303)</t>
+          <t>ReturnTuple(sdnn=14.603376085968954)</t>
         </is>
       </c>
     </row>
@@ -6985,22 +6985,22 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.735226020817024)</t>
+          <t>ReturnTuple(sdnn=21.43284376748338)</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.735226020817024)</t>
+          <t>ReturnTuple(sdnn=21.43284376748338)</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.735226020817024)</t>
+          <t>ReturnTuple(sdnn=21.43284376748338)</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.735226020817024)</t>
+          <t>ReturnTuple(sdnn=21.43284376748338)</t>
         </is>
       </c>
     </row>
@@ -7018,22 +7018,22 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.103504356022366)</t>
+          <t>ReturnTuple(sdnn=17.032552715357006)</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.103504356022366)</t>
+          <t>ReturnTuple(sdnn=17.032552715357006)</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.103504356022366)</t>
+          <t>ReturnTuple(sdnn=17.032552715357006)</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.103504356022366)</t>
+          <t>ReturnTuple(sdnn=17.032552715357006)</t>
         </is>
       </c>
     </row>
@@ -7051,22 +7051,22 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.01230475708555)</t>
+          <t>ReturnTuple(sdnn=18.95834702606759)</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.01230475708555)</t>
+          <t>ReturnTuple(sdnn=18.95834702606759)</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.01230475708555)</t>
+          <t>ReturnTuple(sdnn=18.95834702606759)</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.01230475708555)</t>
+          <t>ReturnTuple(sdnn=18.95834702606759)</t>
         </is>
       </c>
     </row>
@@ -7084,22 +7084,22 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.162526612357391)</t>
+          <t>ReturnTuple(sdnn=15.023519151715782)</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.162526612357391)</t>
+          <t>ReturnTuple(sdnn=15.023519151715782)</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.162526612357391)</t>
+          <t>ReturnTuple(sdnn=15.023519151715782)</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.162526612357391)</t>
+          <t>ReturnTuple(sdnn=15.023519151715782)</t>
         </is>
       </c>
     </row>
@@ -7117,22 +7117,22 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.408095665048403)</t>
+          <t>ReturnTuple(sdnn=17.32355684071665)</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.408095665048403)</t>
+          <t>ReturnTuple(sdnn=17.32355684071665)</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.408095665048403)</t>
+          <t>ReturnTuple(sdnn=17.32355684071665)</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.408095665048403)</t>
+          <t>ReturnTuple(sdnn=17.32355684071665)</t>
         </is>
       </c>
     </row>
@@ -7150,22 +7150,22 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.67757099943388)</t>
+          <t>ReturnTuple(sdnn=11.051639526261217)</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.67757099943388)</t>
+          <t>ReturnTuple(sdnn=11.051639526261217)</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.67757099943388)</t>
+          <t>ReturnTuple(sdnn=11.051639526261217)</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.67757099943388)</t>
+          <t>ReturnTuple(sdnn=11.051639526261217)</t>
         </is>
       </c>
     </row>
@@ -7183,22 +7183,22 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.235272564476581)</t>
+          <t>ReturnTuple(sdnn=15.023418147136757)</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.235272564476581)</t>
+          <t>ReturnTuple(sdnn=15.023418147136757)</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.235272564476581)</t>
+          <t>ReturnTuple(sdnn=15.023418147136757)</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.235272564476581)</t>
+          <t>ReturnTuple(sdnn=15.023418147136757)</t>
         </is>
       </c>
     </row>
@@ -7216,22 +7216,22 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.580414187471343)</t>
+          <t>ReturnTuple(sdnn=15.229917044619071)</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.580414187471343)</t>
+          <t>ReturnTuple(sdnn=15.229917044619071)</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.580414187471343)</t>
+          <t>ReturnTuple(sdnn=15.229917044619071)</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.580414187471343)</t>
+          <t>ReturnTuple(sdnn=15.229917044619071)</t>
         </is>
       </c>
     </row>
@@ -7249,22 +7249,22 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.672544771430424)</t>
+          <t>ReturnTuple(sdnn=18.414080383878375)</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.672544771430424)</t>
+          <t>ReturnTuple(sdnn=18.414080383878375)</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.672544771430424)</t>
+          <t>ReturnTuple(sdnn=18.414080383878375)</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.672544771430424)</t>
+          <t>ReturnTuple(sdnn=18.414080383878375)</t>
         </is>
       </c>
     </row>
@@ -7282,22 +7282,22 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.949779934470424)</t>
+          <t>ReturnTuple(sdnn=24.838560823833756)</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.949779934470424)</t>
+          <t>ReturnTuple(sdnn=24.838560823833756)</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.949779934470424)</t>
+          <t>ReturnTuple(sdnn=24.838560823833756)</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.949779934470424)</t>
+          <t>ReturnTuple(sdnn=24.838560823833756)</t>
         </is>
       </c>
     </row>
@@ -7315,22 +7315,22 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.716746775324674)</t>
+          <t>ReturnTuple(sdnn=11.707074814997386)</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.716746775324674)</t>
+          <t>ReturnTuple(sdnn=11.707074814997386)</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.716746775324674)</t>
+          <t>ReturnTuple(sdnn=11.707074814997386)</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.716746775324674)</t>
+          <t>ReturnTuple(sdnn=11.707074814997386)</t>
         </is>
       </c>
     </row>
@@ -7348,22 +7348,22 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.976768757922379)</t>
+          <t>ReturnTuple(sdnn=12.821856906082388)</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.976768757922379)</t>
+          <t>ReturnTuple(sdnn=12.821856906082388)</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.976768757922379)</t>
+          <t>ReturnTuple(sdnn=12.821856906082388)</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.976768757922379)</t>
+          <t>ReturnTuple(sdnn=12.821856906082388)</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.614544877301647)</t>
+          <t>ReturnTuple(sdnn=18.5364227343083)</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.614544877301647)</t>
+          <t>ReturnTuple(sdnn=18.5364227343083)</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.614544877301647)</t>
+          <t>ReturnTuple(sdnn=18.5364227343083)</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.614544877301647)</t>
+          <t>ReturnTuple(sdnn=18.5364227343083)</t>
         </is>
       </c>
     </row>
@@ -7414,22 +7414,22 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.67143782049733)</t>
+          <t>ReturnTuple(sdnn=16.504075818005166)</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.67143782049733)</t>
+          <t>ReturnTuple(sdnn=16.504075818005166)</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.67143782049733)</t>
+          <t>ReturnTuple(sdnn=16.504075818005166)</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.67143782049733)</t>
+          <t>ReturnTuple(sdnn=16.504075818005166)</t>
         </is>
       </c>
     </row>
@@ -7447,22 +7447,22 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.819884223053236)</t>
+          <t>ReturnTuple(sdnn=14.482342542259488)</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.819884223053236)</t>
+          <t>ReturnTuple(sdnn=14.482342542259488)</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.819884223053236)</t>
+          <t>ReturnTuple(sdnn=14.482342542259488)</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.819884223053236)</t>
+          <t>ReturnTuple(sdnn=14.482342542259488)</t>
         </is>
       </c>
     </row>
@@ -7480,22 +7480,22 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.08362040515198)</t>
+          <t>ReturnTuple(sdnn=25.80754083558847)</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.08362040515198)</t>
+          <t>ReturnTuple(sdnn=25.80754083558847)</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.08362040515198)</t>
+          <t>ReturnTuple(sdnn=25.80754083558847)</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.08362040515198)</t>
+          <t>ReturnTuple(sdnn=25.80754083558847)</t>
         </is>
       </c>
     </row>
@@ -7513,22 +7513,22 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.795231350409239)</t>
+          <t>ReturnTuple(sdnn=15.726260359700671)</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.795231350409239)</t>
+          <t>ReturnTuple(sdnn=15.726260359700671)</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.795231350409239)</t>
+          <t>ReturnTuple(sdnn=15.726260359700671)</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.795231350409239)</t>
+          <t>ReturnTuple(sdnn=15.726260359700671)</t>
         </is>
       </c>
     </row>
@@ -7546,22 +7546,22 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.393725953310284)</t>
+          <t>ReturnTuple(sdnn=26.265446648308107)</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.393725953310284)</t>
+          <t>ReturnTuple(sdnn=26.265446648308107)</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.393725953310284)</t>
+          <t>ReturnTuple(sdnn=26.265446648308107)</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.393725953310284)</t>
+          <t>ReturnTuple(sdnn=26.265446648308107)</t>
         </is>
       </c>
     </row>
@@ -7579,22 +7579,22 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.87902158916713)</t>
+          <t>ReturnTuple(sdnn=21.948174389733826)</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.87902158916713)</t>
+          <t>ReturnTuple(sdnn=21.948174389733826)</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.87902158916713)</t>
+          <t>ReturnTuple(sdnn=21.948174389733826)</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.87902158916713)</t>
+          <t>ReturnTuple(sdnn=21.948174389733826)</t>
         </is>
       </c>
     </row>
@@ -7612,22 +7612,22 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.060939412020737)</t>
+          <t>ReturnTuple(sdnn=22.421531578161254)</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.060939412020737)</t>
+          <t>ReturnTuple(sdnn=22.421531578161254)</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.060939412020737)</t>
+          <t>ReturnTuple(sdnn=22.421531578161254)</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.060939412020737)</t>
+          <t>ReturnTuple(sdnn=22.421531578161254)</t>
         </is>
       </c>
     </row>
@@ -7645,22 +7645,22 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.614840269652776)</t>
+          <t>ReturnTuple(sdnn=12.364539861669305)</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.614840269652776)</t>
+          <t>ReturnTuple(sdnn=12.364539861669305)</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.614840269652776)</t>
+          <t>ReturnTuple(sdnn=12.364539861669305)</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.614840269652776)</t>
+          <t>ReturnTuple(sdnn=12.364539861669305)</t>
         </is>
       </c>
     </row>
@@ -7678,22 +7678,22 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.170378684973258)</t>
+          <t>ReturnTuple(sdnn=20.652088866746492)</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.170378684973258)</t>
+          <t>ReturnTuple(sdnn=20.652088866746492)</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.170378684973258)</t>
+          <t>ReturnTuple(sdnn=20.652088866746492)</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.170378684973258)</t>
+          <t>ReturnTuple(sdnn=20.652088866746492)</t>
         </is>
       </c>
     </row>
@@ -7711,22 +7711,22 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.71005291076101)</t>
+          <t>ReturnTuple(sdnn=19.537582133032934)</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.71005291076101)</t>
+          <t>ReturnTuple(sdnn=19.537582133032934)</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.71005291076101)</t>
+          <t>ReturnTuple(sdnn=19.537582133032934)</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.71005291076101)</t>
+          <t>ReturnTuple(sdnn=19.537582133032934)</t>
         </is>
       </c>
     </row>
@@ -7744,22 +7744,22 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.88262694888513)</t>
+          <t>ReturnTuple(sdnn=16.696454416794204)</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.88262694888513)</t>
+          <t>ReturnTuple(sdnn=16.696454416794204)</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.88262694888513)</t>
+          <t>ReturnTuple(sdnn=16.696454416794204)</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.88262694888513)</t>
+          <t>ReturnTuple(sdnn=16.696454416794204)</t>
         </is>
       </c>
     </row>
@@ -7777,22 +7777,22 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.71246854480564)</t>
+          <t>ReturnTuple(sdnn=15.725807721435299)</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.71246854480564)</t>
+          <t>ReturnTuple(sdnn=15.725807721435299)</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.71246854480564)</t>
+          <t>ReturnTuple(sdnn=15.725807721435299)</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.71246854480564)</t>
+          <t>ReturnTuple(sdnn=15.725807721435299)</t>
         </is>
       </c>
     </row>
@@ -7810,22 +7810,22 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.397005291845527)</t>
+          <t>ReturnTuple(sdnn=18.335435819128826)</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.397005291845527)</t>
+          <t>ReturnTuple(sdnn=18.335435819128826)</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.397005291845527)</t>
+          <t>ReturnTuple(sdnn=18.335435819128826)</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.397005291845527)</t>
+          <t>ReturnTuple(sdnn=18.335435819128826)</t>
         </is>
       </c>
     </row>
@@ -7843,22 +7843,22 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.921940328039973)</t>
+          <t>ReturnTuple(sdnn=22.88504217649927)</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.921940328039973)</t>
+          <t>ReturnTuple(sdnn=22.88504217649927)</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.921940328039973)</t>
+          <t>ReturnTuple(sdnn=22.88504217649927)</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.921940328039973)</t>
+          <t>ReturnTuple(sdnn=22.88504217649927)</t>
         </is>
       </c>
     </row>
@@ -7876,22 +7876,22 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.580998261719634)</t>
+          <t>ReturnTuple(sdnn=9.58377822376317)</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.580998261719634)</t>
+          <t>ReturnTuple(sdnn=9.58377822376317)</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.580998261719634)</t>
+          <t>ReturnTuple(sdnn=9.58377822376317)</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.580998261719634)</t>
+          <t>ReturnTuple(sdnn=9.58377822376317)</t>
         </is>
       </c>
     </row>
@@ -7909,22 +7909,22 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.974286121689282)</t>
+          <t>ReturnTuple(sdnn=19.04893849338404)</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.974286121689282)</t>
+          <t>ReturnTuple(sdnn=19.04893849338404)</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.974286121689282)</t>
+          <t>ReturnTuple(sdnn=19.04893849338404)</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.974286121689282)</t>
+          <t>ReturnTuple(sdnn=19.04893849338404)</t>
         </is>
       </c>
     </row>
@@ -7942,22 +7942,22 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.626280587125782)</t>
+          <t>ReturnTuple(sdnn=14.521597979402125)</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.626280587125782)</t>
+          <t>ReturnTuple(sdnn=14.521597979402125)</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.626280587125782)</t>
+          <t>ReturnTuple(sdnn=14.521597979402125)</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.626280587125782)</t>
+          <t>ReturnTuple(sdnn=14.521597979402125)</t>
         </is>
       </c>
     </row>
